--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value556.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value556.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4306030706074707</v>
+        <v>1.321822762489319</v>
       </c>
       <c r="B1">
-        <v>0.5440185545900081</v>
+        <v>1.379718065261841</v>
       </c>
       <c r="C1">
-        <v>0.7952839117516604</v>
+        <v>1.551220536231995</v>
       </c>
       <c r="D1">
-        <v>2.484388469702352</v>
+        <v>2.397186040878296</v>
       </c>
       <c r="E1">
-        <v>3.683901952158592</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
